--- a/src/main/resources/com/relative/QuskyOro/Matrices/PerfilClientesExternos.xlsx
+++ b/src/main/resources/com/relative/QuskyOro/Matrices/PerfilClientesExternos.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\extre\Documents\proyectos\proyectos drools\QuskyOro\src\main\resources\com\relative\QuskyOro\Matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6B3B90-3376-4BE3-96B8-8F3CDE853ECE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADA6D95-E601-4310-98CD-AF5EF8A53FB6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -84,7 +84,7 @@
     <t>GrupoPerfilClienteExterno</t>
   </si>
   <si>
-    <t>com.relative.QuskyOro.ObjetosNegocio.Cliente</t>
+    <t>com.relative.QuskiOro.ObjetosNegocio.Cliente</t>
   </si>
 </sst>
 </file>
@@ -216,9 +216,6 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -248,6 +245,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -802,7 +802,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -813,306 +813,306 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="26.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="26.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="26.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" ht="26.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="26.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="1" t="s">
+      <c r="A6" s="1"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="26.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5" t="s">
+      <c r="A7" s="1"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="26.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>818</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>999</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>1</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="26.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>656</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>817</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>2</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="26.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <v>468</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>655</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>3</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="26.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>231</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>467</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>4</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="26.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <v>1</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>230</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>5</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="26.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <v>-1</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>0</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <v>6</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="26.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="9">
         <v>-1</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <v>-1</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <v>7</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="26.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="9">
         <v>-1</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="9">
         <v>-1</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <v>8</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="26.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="9">
         <v>-1</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="9">
         <v>-1</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="10">
         <v>9</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="26.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="9">
         <v>-1</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="9">
         <v>-1</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <v>10</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="10">
         <v>3</v>
       </c>
     </row>
